--- a/Team-Data/2008-09/2-21-2008-09.xlsx
+++ b/Team-Data/2008-09/2-21-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>29</v>
@@ -762,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
         <v>14</v>
@@ -774,13 +841,13 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -807,19 +874,19 @@
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB2" t="n">
         <v>17</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -848,22 +915,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.782</v>
+        <v>0.786</v>
       </c>
       <c r="H3" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J3" t="n">
         <v>77.3</v>
@@ -872,61 +939,61 @@
         <v>0.483</v>
       </c>
       <c r="L3" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M3" t="n">
         <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.386</v>
+        <v>0.383</v>
       </c>
       <c r="O3" t="n">
         <v>20.1</v>
       </c>
       <c r="P3" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.773</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.2</v>
+        <v>101</v>
       </c>
       <c r="AC3" t="n">
         <v>9.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>2</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -956,22 +1023,22 @@
         <v>20</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP3" t="n">
         <v>9</v>
       </c>
-      <c r="AP3" t="n">
-        <v>11</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>17</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
         <v>6</v>
@@ -986,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -998,7 +1065,7 @@
         <v>6</v>
       </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1135,7 +1202,7 @@
         <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
         <v>18</v>
@@ -1168,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
         <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>0.444</v>
+        <v>0.455</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,13 +1297,13 @@
         <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0.451</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
         <v>15.8</v>
@@ -1245,28 +1312,28 @@
         <v>0.377</v>
       </c>
       <c r="O5" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="P5" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R5" t="n">
         <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V5" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W5" t="n">
         <v>7.6</v>
@@ -1275,22 +1342,22 @@
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1311,22 +1378,22 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
         <v>22</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1350,7 +1417,7 @@
         <v>8</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1359,10 +1426,10 @@
         <v>20</v>
       </c>
       <c r="BA5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
         <v>18</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -1394,52 +1461,52 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" t="n">
         <v>42</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.792</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J6" t="n">
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="K6" t="n">
         <v>0.475</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.385</v>
+        <v>0.383</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R6" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
         <v>41.7</v>
@@ -1448,37 +1515,37 @@
         <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.2</v>
+        <v>9.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
         <v>2</v>
@@ -1490,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
@@ -1502,19 +1569,19 @@
         <v>4</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1526,25 +1593,25 @@
         <v>24</v>
       </c>
       <c r="AV6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
         <v>10</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
         <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -1576,64 +1643,64 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="n">
         <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.593</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>38.3</v>
+        <v>38.1</v>
       </c>
       <c r="J7" t="n">
         <v>83</v>
       </c>
       <c r="K7" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L7" t="n">
         <v>6.8</v>
       </c>
       <c r="M7" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N7" t="n">
         <v>0.351</v>
       </c>
       <c r="O7" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P7" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S7" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T7" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U7" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="V7" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
         <v>5.5</v>
@@ -1642,31 +1709,31 @@
         <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA7" t="n">
         <v>19.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
         <v>6</v>
@@ -1681,7 +1748,7 @@
         <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN7" t="n">
         <v>23</v>
@@ -1702,7 +1769,7 @@
         <v>9</v>
       </c>
       <c r="AT7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
@@ -1714,7 +1781,7 @@
         <v>14</v>
       </c>
       <c r="AX7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>7</v>
@@ -1726,10 +1793,10 @@
         <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1854,7 +1921,7 @@
         <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1866,10 +1933,10 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2057,7 +2124,7 @@
         <v>27</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
         <v>18</v>
@@ -2066,7 +2133,7 @@
         <v>16</v>
       </c>
       <c r="AT9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU9" t="n">
         <v>23</v>
@@ -2078,10 +2145,10 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" t="n">
         <v>36</v>
       </c>
       <c r="G10" t="n">
-        <v>0.357</v>
+        <v>0.345</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
       </c>
       <c r="I10" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="J10" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="K10" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L10" t="n">
         <v>6.6</v>
@@ -2152,55 +2219,55 @@
         <v>17.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O10" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="P10" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.782</v>
+        <v>0.779</v>
       </c>
       <c r="R10" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S10" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T10" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U10" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V10" t="n">
         <v>14.8</v>
       </c>
       <c r="W10" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
         <v>6.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA10" t="n">
         <v>23.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.2</v>
+        <v>107.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.3</v>
+        <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2218,7 +2285,7 @@
         <v>3</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="n">
         <v>11</v>
@@ -2230,31 +2297,31 @@
         <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP10" t="n">
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS10" t="n">
         <v>15</v>
       </c>
       <c r="AT10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
         <v>16</v>
       </c>
       <c r="AV10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
@@ -2263,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
         <v>22</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2403,7 +2470,7 @@
         <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="n">
         <v>6</v>
@@ -2412,13 +2479,13 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
         <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
@@ -2433,13 +2500,13 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV11" t="n">
         <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2457,7 +2524,7 @@
         <v>18</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2582,7 +2649,7 @@
         <v>4</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK12" t="n">
         <v>17</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
         <v>16</v>
@@ -2618,10 +2685,10 @@
         <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2758,7 +2825,7 @@
         <v>27</v>
       </c>
       <c r="AH13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2812,7 +2879,7 @@
         <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.477</v>
@@ -2877,31 +2944,31 @@
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="O14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="P14" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R14" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S14" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T14" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
         <v>13.6</v>
@@ -2910,7 +2977,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
         <v>4.6</v>
@@ -2919,16 +2986,16 @@
         <v>20.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.1</v>
+        <v>108.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2940,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2958,10 +3025,10 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>6</v>
@@ -2973,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2994,7 +3061,7 @@
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3146,13 +3213,13 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS15" t="n">
         <v>26</v>
@@ -3164,10 +3231,10 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX15" t="n">
         <v>22</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
         <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>0.537</v>
+        <v>0.528</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L16" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M16" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.351</v>
+        <v>0.354</v>
       </c>
       <c r="O16" t="n">
         <v>16.9</v>
@@ -3256,7 +3323,7 @@
         <v>0.744</v>
       </c>
       <c r="R16" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S16" t="n">
         <v>29.1</v>
@@ -3271,7 +3338,7 @@
         <v>12.6</v>
       </c>
       <c r="W16" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X16" t="n">
         <v>5.6</v>
@@ -3283,16 +3350,16 @@
         <v>20.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB16" t="n">
         <v>96.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3310,16 +3377,16 @@
         <v>18</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
       </c>
       <c r="AM16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN16" t="n">
         <v>22</v>
@@ -3358,7 +3425,7 @@
         <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA16" t="n">
         <v>27</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" t="n">
         <v>27</v>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="n">
-        <v>0.474</v>
+        <v>0.466</v>
       </c>
       <c r="H17" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I17" t="n">
         <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K17" t="n">
         <v>0.45</v>
@@ -3426,31 +3493,31 @@
         <v>16.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O17" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P17" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U17" t="n">
         <v>21.5</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3462,16 +3529,16 @@
         <v>4.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,7 +3547,7 @@
         <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3489,13 +3556,13 @@
         <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3513,13 +3580,13 @@
         <v>7</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR17" t="n">
         <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT17" t="n">
         <v>15</v>
@@ -3528,7 +3595,7 @@
         <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
         <v>15</v>
@@ -3540,7 +3607,7 @@
         <v>12</v>
       </c>
       <c r="AZ17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3671,7 +3738,7 @@
         <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>5</v>
@@ -3701,16 +3768,16 @@
         <v>4</v>
       </c>
       <c r="AS18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT18" t="n">
         <v>10</v>
       </c>
       <c r="AU18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3725,10 +3792,10 @@
         <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>-2.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>20</v>
@@ -3874,10 +3941,10 @@
         <v>15</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR19" t="n">
         <v>13</v>
@@ -3895,7 +3962,7 @@
         <v>10</v>
       </c>
       <c r="AW19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX19" t="n">
         <v>20</v>
@@ -3910,7 +3977,7 @@
         <v>19</v>
       </c>
       <c r="BB19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" t="n">
         <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>0.593</v>
+        <v>0.604</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
       </c>
       <c r="I20" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>76.59999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="K20" t="n">
         <v>0.456</v>
@@ -3972,22 +4039,22 @@
         <v>19.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.382</v>
+        <v>0.384</v>
       </c>
       <c r="O20" t="n">
         <v>18.6</v>
       </c>
       <c r="P20" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S20" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T20" t="n">
         <v>38.7</v>
@@ -4005,7 +4072,7 @@
         <v>4.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z20" t="n">
         <v>20.9</v>
@@ -4014,22 +4081,22 @@
         <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG20" t="n">
         <v>9</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10</v>
       </c>
       <c r="AH20" t="n">
         <v>28</v>
@@ -4041,7 +4108,7 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>9</v>
@@ -4050,7 +4117,7 @@
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
         <v>21</v>
@@ -4074,10 +4141,10 @@
         <v>27</v>
       </c>
       <c r="AV20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX20" t="n">
         <v>23</v>
@@ -4095,7 +4162,7 @@
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-1.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4223,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4250,13 +4317,13 @@
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU21" t="n">
         <v>8</v>
       </c>
       <c r="AV21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW21" t="n">
         <v>17</v>
@@ -4268,7 +4335,7 @@
         <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -4306,64 +4373,64 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
-        <v>0.232</v>
+        <v>0.236</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J22" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L22" t="n">
         <v>4.2</v>
       </c>
       <c r="M22" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.368</v>
+        <v>0.373</v>
       </c>
       <c r="O22" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="P22" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.777</v>
+        <v>0.775</v>
       </c>
       <c r="R22" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S22" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T22" t="n">
         <v>43.1</v>
       </c>
       <c r="U22" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V22" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="W22" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X22" t="n">
         <v>4.5</v>
@@ -4378,49 +4445,49 @@
         <v>20.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>98.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.2</v>
+        <v>-6.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
       </c>
       <c r="AF22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM22" t="n">
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ22" t="n">
         <v>12</v>
@@ -4435,19 +4502,19 @@
         <v>5</v>
       </c>
       <c r="AU22" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AX22" t="n">
         <v>21</v>
       </c>
       <c r="AY22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ22" t="n">
         <v>14</v>
@@ -4456,7 +4523,7 @@
         <v>16</v>
       </c>
       <c r="BB22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4596,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO23" t="n">
         <v>10</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -4626,13 +4693,13 @@
         <v>16</v>
       </c>
       <c r="AX23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY23" t="n">
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" t="n">
         <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0.509</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4688,31 +4755,31 @@
         <v>36.5</v>
       </c>
       <c r="J24" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.452</v>
+        <v>0.454</v>
       </c>
       <c r="L24" t="n">
         <v>4.2</v>
       </c>
       <c r="M24" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.315</v>
+        <v>0.318</v>
       </c>
       <c r="O24" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P24" t="n">
         <v>25.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R24" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S24" t="n">
         <v>29.8</v>
@@ -4721,58 +4788,58 @@
         <v>42.7</v>
       </c>
       <c r="U24" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="V24" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W24" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y24" t="n">
         <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
       </c>
       <c r="AF24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI24" t="n">
         <v>16</v>
       </c>
-      <c r="AG24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK24" t="n">
         <v>16</v>
       </c>
       <c r="AL24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM24" t="n">
         <v>29</v>
@@ -4787,16 +4854,16 @@
         <v>13</v>
       </c>
       <c r="AQ24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU24" t="n">
         <v>17</v>
@@ -4808,13 +4875,13 @@
         <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY24" t="n">
         <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>12</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4948,7 +5015,7 @@
         <v>2</v>
       </c>
       <c r="AJ25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
@@ -4960,7 +5027,7 @@
         <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO25" t="n">
         <v>4</v>
@@ -4972,13 +5039,13 @@
         <v>19</v>
       </c>
       <c r="AR25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS25" t="n">
         <v>7</v>
       </c>
       <c r="AT25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU25" t="n">
         <v>4</v>
@@ -4990,7 +5057,7 @@
         <v>26</v>
       </c>
       <c r="AX25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY25" t="n">
         <v>8</v>
@@ -5005,7 +5072,7 @@
         <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -5034,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" t="n">
         <v>34</v>
       </c>
       <c r="F26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>0.642</v>
+        <v>0.63</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P26" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="R26" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T26" t="n">
         <v>41.1</v>
       </c>
       <c r="U26" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V26" t="n">
         <v>13.1</v>
@@ -5097,22 +5164,22 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>99</v>
+      </c>
+      <c r="AC26" t="n">
         <v>3.7</v>
       </c>
-      <c r="Z26" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>4.1</v>
-      </c>
       <c r="AD26" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,16 +5191,16 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5145,13 +5212,13 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5163,28 +5230,28 @@
         <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AX26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA26" t="n">
         <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="n">
         <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G27" t="n">
-        <v>0.211</v>
+        <v>0.214</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
@@ -5234,7 +5301,7 @@
         <v>36.1</v>
       </c>
       <c r="J27" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.446</v>
@@ -5249,22 +5316,22 @@
         <v>0.356</v>
       </c>
       <c r="O27" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="P27" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="Q27" t="n">
         <v>0.805</v>
       </c>
       <c r="R27" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S27" t="n">
         <v>28.5</v>
       </c>
       <c r="T27" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="U27" t="n">
         <v>19.9</v>
@@ -5273,7 +5340,7 @@
         <v>15.8</v>
       </c>
       <c r="W27" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X27" t="n">
         <v>4.1</v>
@@ -5285,16 +5352,16 @@
         <v>23.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.6</v>
+        <v>-9.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5327,7 +5394,7 @@
         <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP27" t="n">
         <v>12</v>
@@ -5336,7 +5403,7 @@
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS27" t="n">
         <v>28</v>
@@ -5354,10 +5421,10 @@
         <v>24</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5366,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -5398,43 +5465,43 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" t="n">
         <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H28" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I28" t="n">
         <v>37</v>
       </c>
       <c r="J28" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M28" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.395</v>
+        <v>0.392</v>
       </c>
       <c r="O28" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P28" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="Q28" t="n">
         <v>0.77</v>
@@ -5443,43 +5510,43 @@
         <v>8.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T28" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V28" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="W28" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Y28" t="n">
         <v>4.3</v>
       </c>
-      <c r="Y28" t="n">
-        <v>4.4</v>
-      </c>
       <c r="Z28" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB28" t="n">
         <v>97.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF28" t="n">
         <v>5</v>
@@ -5497,7 +5564,7 @@
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>4</v>
@@ -5506,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,16 +5582,16 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5539,7 +5606,7 @@
         <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5551,7 +5618,7 @@
         <v>21</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5679,7 +5746,7 @@
         <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="n">
         <v>21</v>
@@ -5688,10 +5755,10 @@
         <v>21</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP29" t="n">
         <v>26</v>
@@ -5712,28 +5779,28 @@
         <v>11</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>22</v>
       </c>
       <c r="BC29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" t="n">
         <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.589</v>
+        <v>0.582</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
@@ -5780,67 +5847,67 @@
         <v>38</v>
       </c>
       <c r="J30" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K30" t="n">
         <v>0.477</v>
       </c>
       <c r="L30" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M30" t="n">
         <v>14</v>
       </c>
       <c r="N30" t="n">
-        <v>0.342</v>
+        <v>0.338</v>
       </c>
       <c r="O30" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="P30" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.769</v>
+        <v>0.771</v>
       </c>
       <c r="R30" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S30" t="n">
         <v>29.2</v>
       </c>
       <c r="T30" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U30" t="n">
         <v>24.4</v>
       </c>
       <c r="V30" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W30" t="n">
         <v>8.6</v>
       </c>
       <c r="X30" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y30" t="n">
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AB30" t="n">
         <v>102.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>9</v>
@@ -5852,7 +5919,7 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI30" t="n">
         <v>7</v>
@@ -5879,13 +5946,13 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
         <v>17</v>
@@ -5894,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
@@ -5944,97 +6011,97 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
       </c>
       <c r="F31" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" t="n">
-        <v>0.232</v>
+        <v>0.236</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="J31" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.444</v>
+        <v>0.446</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M31" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.323</v>
+        <v>0.327</v>
       </c>
       <c r="O31" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P31" t="n">
         <v>22.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.76</v>
+        <v>0.763</v>
       </c>
       <c r="R31" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="T31" t="n">
         <v>40</v>
       </c>
       <c r="U31" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V31" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W31" t="n">
         <v>7.4</v>
       </c>
       <c r="X31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.5</v>
+        <v>95</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.8</v>
+        <v>-7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>27</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
         <v>19</v>
@@ -6043,7 +6110,7 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6061,10 +6128,10 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS31" t="n">
         <v>29</v>
@@ -6073,7 +6140,7 @@
         <v>24</v>
       </c>
       <c r="AU31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
@@ -6082,13 +6149,13 @@
         <v>13</v>
       </c>
       <c r="AX31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-21-2008-09</t>
+          <t>2009-02-21</t>
         </is>
       </c>
     </row>
